--- a/config.xlsx
+++ b/config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>file_type</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>MSLDC_SCADA.csv</t>
+  </si>
+  <si>
+    <t>guj_intraday_sch_data</t>
+  </si>
+  <si>
+    <t>mp_intraday_sch_data</t>
+  </si>
+  <si>
+    <t>chatt_intraday_sch_data</t>
+  </si>
+  <si>
+    <t>mh_intraday_sch_data</t>
+  </si>
+  <si>
+    <t>WR_Injection_Schedule_{{dt}}.csv</t>
+  </si>
+  <si>
+    <t>DSfile_{{dt}}.csv</t>
+  </si>
+  <si>
+    <t>{{dt}}_SCHEDULE.csv</t>
   </si>
 </sst>
 </file>
@@ -390,16 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -471,6 +492,59 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="files_info" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>%d%m%Y</t>
   </si>
   <si>
-    <t>MSLDC_SCADA.csv</t>
-  </si>
-  <si>
     <t>guj_intraday_sch_data</t>
   </si>
   <si>
@@ -94,16 +91,27 @@
   </si>
   <si>
     <t>{{dt}}_SCHEDULE.csv</t>
+  </si>
+  <si>
+    <t>MSLDC_DC_SCHEDULE_RLDC_DATA.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,13 +134,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,18 +425,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -453,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -467,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -481,7 +492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -489,64 +500,67 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="\\10.2.100.239\D:\resourceadequacy\mh_data"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="files_info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>file_type</t>
   </si>
@@ -39,9 +39,6 @@
     <t>%d-%m-%Y</t>
   </si>
   <si>
-    <t>D:\resourceadequacy\guj_data</t>
-  </si>
-  <si>
     <t>Declared_Capacity_{{dt}}.csv</t>
   </si>
   <si>
@@ -54,15 +51,6 @@
     <t>mh_intraday_dc_data</t>
   </si>
   <si>
-    <t>D:\resourceadequacy\chatt_data</t>
-  </si>
-  <si>
-    <t>D:\resourceadequacy\mh_data</t>
-  </si>
-  <si>
-    <t>D:\resourceadequacy\mp_data</t>
-  </si>
-  <si>
     <t>DCfile_{{dt}}.csv</t>
   </si>
   <si>
@@ -94,6 +82,33 @@
   </si>
   <si>
     <t>MSLDC_DC_SCHEDULE_RLDC_DATA.csv</t>
+  </si>
+  <si>
+    <t>\\10.2.100.239\Chatt_Data\Chatt_Intraday_DC_Sch_Files</t>
+  </si>
+  <si>
+    <t>\\10.2.100.239\Guj_Data\Guj_Intraday_DC_Sch_Files</t>
+  </si>
+  <si>
+    <t>\\10.2.100.239\MP_Data\MP_Intraday_DC_Sch_Files</t>
+  </si>
+  <si>
+    <t>\\10.2.100.239\Mah_Data\Mah_Intraday_DC_Sch_Files</t>
+  </si>
+  <si>
+    <t>chatt_day_ahead_dc_data</t>
+  </si>
+  <si>
+    <t>mh_day_ahead_dc_data</t>
+  </si>
+  <si>
+    <t>\\10.2.100.239\Chatt_Data\Chatt_DC_Files</t>
+  </si>
+  <si>
+    <t>\\10.2.100.239\Mah_Data\Mah_DC_Files</t>
+  </si>
+  <si>
+    <t>DC sending sheet to wrldc.xlsx</t>
   </si>
 </sst>
 </file>
@@ -422,21 +437,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,117 +465,151 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="\\10.2.100.239\D:\resourceadequacy\mh_data"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>file_type</t>
   </si>
@@ -84,31 +84,37 @@
     <t>MSLDC_DC_SCHEDULE_RLDC_DATA.csv</t>
   </si>
   <si>
-    <t>\\10.2.100.239\Chatt_Data\Chatt_Intraday_DC_Sch_Files</t>
-  </si>
-  <si>
-    <t>\\10.2.100.239\Guj_Data\Guj_Intraday_DC_Sch_Files</t>
-  </si>
-  <si>
-    <t>\\10.2.100.239\MP_Data\MP_Intraday_DC_Sch_Files</t>
-  </si>
-  <si>
-    <t>\\10.2.100.239\Mah_Data\Mah_Intraday_DC_Sch_Files</t>
-  </si>
-  <si>
     <t>chatt_day_ahead_dc_data</t>
   </si>
   <si>
     <t>mh_day_ahead_dc_data</t>
   </si>
   <si>
-    <t>\\10.2.100.239\Chatt_Data\Chatt_DC_Files</t>
-  </si>
-  <si>
-    <t>\\10.2.100.239\Mah_Data\Mah_DC_Files</t>
-  </si>
-  <si>
     <t>DC sending sheet to wrldc.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.2.100.119\Users\chatt\Chatt_Data\Chatt_Intraday_DC_Sch_Files</t>
+  </si>
+  <si>
+    <t>\\10.2.100.119\Users\gujarat\Guj_Data\Guj_Intraday_DC_Sch_Files</t>
+  </si>
+  <si>
+    <t>\\10.2.100.119\Users\mp\MP_Data\MP_Intraday_DC_Sch_Files</t>
+  </si>
+  <si>
+    <t>\\10.2.100.119\Users\chatt\Chatt_Data\Chatt_DC_Files</t>
+  </si>
+  <si>
+    <t>\\10.2.100.171\maharashtra\Mah_Data\Mah_DC_Files</t>
+  </si>
+  <si>
+    <t>/home/maharashtra/Mah_Data/Mah_Intraday_DC_Sch_Files</t>
+  </si>
+  <si>
+    <t>mp_day_ahead_dc_data</t>
+  </si>
+  <si>
+    <t>guj_day_ahead_dc_data</t>
   </si>
 </sst>
 </file>
@@ -440,13 +446,13 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -469,8 +475,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -483,8 +489,8 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -498,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -511,8 +517,8 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -522,8 +528,8 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -536,8 +542,8 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -551,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -565,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -573,7 +579,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -587,20 +593,30 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -608,8 +624,16 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B10" r:id="rId3"/>
     <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7" display="\\10.2.100.171\home\maharashtra\Mah_Data\Mah_Intraday_DC_Sch_Files"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10" display="\\10.2.100.171\maharashtra\Mah_Data\Mah_Intraday_DC_Sch_Files"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>